--- a/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
+++ b/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>string</t>
   </si>
@@ -42,106 +42,140 @@
     <t>spriteName</t>
   </si>
   <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>단발총입니다.</t>
+    <t>산탄총</t>
+  </si>
+  <si>
+    <t>소총</t>
+  </si>
+  <si>
+    <t>여러 갈래로 탄환을 발사하여 공격하는 무기.
+사거리는 짧으나, 근접한 적을 쓸어버리는데에 효과가 좋다.</t>
   </si>
   <si>
     <t>유탄입니다.</t>
   </si>
   <si>
+    <t>EnergySphereGun</t>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>화력 강화</t>
+  </si>
+  <si>
+    <t>사거리 증가</t>
+  </si>
+  <si>
+    <t>데미지가 10 증가합니다.</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>공격 사거리가 1m 증가합니다.</t>
+  </si>
+  <si>
+    <t>ARup</t>
+  </si>
+  <si>
+    <t>ATKup</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>약점 조준</t>
+  </si>
+  <si>
+    <t>치명타 확률이 10% 증가합니다.</t>
+  </si>
+  <si>
+    <t>CCup</t>
+  </si>
+  <si>
+    <t>탄환 추가</t>
+  </si>
+  <si>
+    <t>탄환을 1개 더 발사합니다.</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>AAup</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>약점 파괴</t>
+  </si>
+  <si>
+    <t>치명타 피해량이 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>CRup</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>각 탄환당 데미지가 5 증가합니다.</t>
+  </si>
+  <si>
+    <t>중력장 생성(U)</t>
+  </si>
+  <si>
+    <t>단발총</t>
+  </si>
+  <si>
+    <t>에너지를 충전한 특수 탄환을 발사해 처음 적중한 대상 주위에 3초간 적을 끌어당기는 중력장을 생성합니다.
+이 공격은 반드시 치명타로 적중합니다.
+재사용 대기시간 5초</t>
+  </si>
+  <si>
+    <t>더블 배럴(U)</t>
+  </si>
+  <si>
+    <t>빠른 연사속도로 적을 공격하는 무기.
+범용성이 높아 다양한 적에 대응할 수 있고 행동이 재빠른 적을 제압하기에 용이하다.</t>
+  </si>
+  <si>
+    <t>U_GravityField</t>
+  </si>
+  <si>
+    <t>탄환을 2배로 발사합니다.
+이 공격의 넉백거리는 2배가 되고, 사거리의 제한이 없어집니다.
+재사용 대기시간 5초</t>
+  </si>
+  <si>
+    <t>U_DoubleBarrel</t>
+  </si>
+  <si>
     <t>LinearGun</t>
   </si>
   <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>데미지 증가</t>
-  </si>
-  <si>
-    <t>데미지가 증가합니다.</t>
-  </si>
-  <si>
-    <t>ATKup</t>
-  </si>
-  <si>
-    <t>2_1</t>
-  </si>
-  <si>
-    <t>2_2</t>
-  </si>
-  <si>
-    <t>연사 속도 증가</t>
-  </si>
-  <si>
-    <t>연사 속도가 증가합니다.</t>
+    <t>신속 장전</t>
+  </si>
+  <si>
+    <t>발사 후 재장전 속도가 0.25초 감소합니다.</t>
   </si>
   <si>
     <t>ASup</t>
   </si>
   <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>사거리 증가</t>
-  </si>
-  <si>
-    <t>공격 사거리가 증가합니다.</t>
-  </si>
-  <si>
-    <t>ARup</t>
-  </si>
-  <si>
-    <t>3_1</t>
-  </si>
-  <si>
     <t>관통 사격(U)</t>
   </si>
   <si>
-    <t>3초간 적을 관통하는 탄환을 발사합니다. 재사용 대기시간 5초</t>
+    <t>피격 대상들을 모두 관통하며 피해를 입히는 탄환을 10회 발사합니다.
+재사용 대기시간 5초</t>
   </si>
   <si>
     <t>U_PanetratingShot</t>
-  </si>
-  <si>
-    <t>탄환 크기 증가</t>
-  </si>
-  <si>
-    <t>탄환의 크기가 증가합니다.</t>
-  </si>
-  <si>
-    <t>BSup</t>
-  </si>
-  <si>
-    <t>중력장 생성(U)</t>
-  </si>
-  <si>
-    <t>처음 적중한 대상 주위에 3초간 적을 끌어당기는 중력장을 생성합니다. 재사용 대기시간 5초</t>
-  </si>
-  <si>
-    <t>U_GravityField</t>
-  </si>
-  <si>
-    <t>샷건입니다.</t>
-  </si>
-  <si>
-    <t>발사 각도 증가</t>
-  </si>
-  <si>
-    <t>발사 각도가 증가합니다.</t>
-  </si>
-  <si>
-    <t>AAup</t>
-  </si>
-  <si>
-    <t>뭐에요?(U)</t>
-  </si>
-  <si>
-    <t>뭐냐구???</t>
-  </si>
-  <si>
-    <t>U_What?</t>
   </si>
 </sst>
 </file>
@@ -435,14 +469,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -455,10 +489,10 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -482,131 +516,131 @@
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2">
         <v>0.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
       </c>
-      <c r="C4" s="2">
-        <v>200.0</v>
+      <c r="C4" s="1">
+        <v>100.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F4" s="2">
         <v>5.0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>500.0</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>500.0</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>25.0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>500.0</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +668,13 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -657,13 +691,13 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -680,135 +714,135 @@
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>0.0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2">
-        <v>10.0</v>
+        <v>100.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10.0</v>
+        <v>100.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000.0</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500.0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
+        <v>43</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -830,19 +864,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -853,19 +887,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -879,138 +913,138 @@
       <c r="A3" s="1">
         <v>0.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>0.0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.0</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>500.0</v>
+        <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>500.0</v>
+        <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>500.0</v>
+        <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
+++ b/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
@@ -21,6 +21,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
@@ -42,76 +45,95 @@
     <t>spriteName</t>
   </si>
   <si>
+    <t>단발총</t>
+  </si>
+  <si>
+    <t>소총</t>
+  </si>
+  <si>
     <t>산탄총</t>
   </si>
   <si>
-    <t>소총</t>
+    <t>유탄입니다.</t>
+  </si>
+  <si>
+    <t>빠른 연사속도로 적을 공격하는 무기.
+범용성이 높아 다양한 적에 대응할 수 있고 행동이 재빠른 적을 제압하기에 용이하다.</t>
   </si>
   <si>
     <t>여러 갈래로 탄환을 발사하여 공격하는 무기.
 사거리는 짧으나, 근접한 적을 쓸어버리는데에 효과가 좋다.</t>
   </si>
   <si>
-    <t>유탄입니다.</t>
-  </si>
-  <si>
     <t>EnergySphereGun</t>
   </si>
   <si>
+    <t>LinearGun</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
     <t>ShotGun</t>
   </si>
   <si>
-    <t>1_1</t>
-  </si>
-  <si>
     <t>화력 강화</t>
   </si>
   <si>
+    <t>데미지가 10 증가합니다.</t>
+  </si>
+  <si>
+    <t>ATKup</t>
+  </si>
+  <si>
+    <t>각 탄환당 데미지가 5 증가합니다.</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
     <t>사거리 증가</t>
   </si>
   <si>
-    <t>데미지가 10 증가합니다.</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>공격 사거리가 1m 증가합니다.</t>
   </si>
   <si>
+    <t>약점 조준</t>
+  </si>
+  <si>
+    <t>치명타 확률이 10% 증가합니다.</t>
+  </si>
+  <si>
     <t>ARup</t>
   </si>
   <si>
-    <t>ATKup</t>
-  </si>
-  <si>
-    <t>2_1</t>
-  </si>
-  <si>
-    <t>약점 조준</t>
-  </si>
-  <si>
-    <t>치명타 확률이 10% 증가합니다.</t>
+    <t>신속 장전</t>
   </si>
   <si>
     <t>CCup</t>
   </si>
   <si>
+    <t>발사 후 재장전 속도가 0.25초 감소합니다.</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>ASup</t>
+  </si>
+  <si>
     <t>탄환 추가</t>
   </si>
   <si>
     <t>탄환을 1개 더 발사합니다.</t>
   </si>
   <si>
-    <t>2_2</t>
+    <t>2_3</t>
   </si>
   <si>
     <t>AAup</t>
   </si>
   <si>
-    <t>2_3</t>
-  </si>
-  <si>
     <t>약점 파괴</t>
   </si>
   <si>
@@ -124,13 +146,7 @@
     <t>3_1</t>
   </si>
   <si>
-    <t>각 탄환당 데미지가 5 증가합니다.</t>
-  </si>
-  <si>
     <t>중력장 생성(U)</t>
-  </si>
-  <si>
-    <t>단발총</t>
   </si>
   <si>
     <t>에너지를 충전한 특수 탄환을 발사해 처음 적중한 대상 주위에 3초간 적을 끌어당기는 중력장을 생성합니다.
@@ -138,14 +154,20 @@
 재사용 대기시간 5초</t>
   </si>
   <si>
+    <t>U_GravityField</t>
+  </si>
+  <si>
+    <t>관통 사격(U)</t>
+  </si>
+  <si>
+    <t>피격 대상들을 모두 관통하며 피해를 입히는 탄환을 10회 발사합니다.
+재사용 대기시간 5초</t>
+  </si>
+  <si>
+    <t>U_PanetratingShot</t>
+  </si>
+  <si>
     <t>더블 배럴(U)</t>
-  </si>
-  <si>
-    <t>빠른 연사속도로 적을 공격하는 무기.
-범용성이 높아 다양한 적에 대응할 수 있고 행동이 재빠른 적을 제압하기에 용이하다.</t>
-  </si>
-  <si>
-    <t>U_GravityField</t>
   </si>
   <si>
     <t>탄환을 2배로 발사합니다.
@@ -154,28 +176,6 @@
   </si>
   <si>
     <t>U_DoubleBarrel</t>
-  </si>
-  <si>
-    <t>LinearGun</t>
-  </si>
-  <si>
-    <t>신속 장전</t>
-  </si>
-  <si>
-    <t>발사 후 재장전 속도가 0.25초 감소합니다.</t>
-  </si>
-  <si>
-    <t>ASup</t>
-  </si>
-  <si>
-    <t>관통 사격(U)</t>
-  </si>
-  <si>
-    <t>피격 대상들을 모두 관통하며 피해를 입히는 탄환을 10회 발사합니다.
-재사용 대기시간 5초</t>
-  </si>
-  <si>
-    <t>U_PanetratingShot</t>
   </si>
 </sst>
 </file>
@@ -188,14 +188,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -466,43 +467,43 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -512,25 +513,25 @@
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -539,108 +540,108 @@
         <v>100.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
         <v>5.0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>25.0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
         <v>25.0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>48</v>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>500.0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2">
         <v>10.0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -668,43 +669,43 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -714,25 +715,25 @@
       <c r="B3" s="1">
         <v>0.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -741,108 +742,108 @@
         <v>100.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2">
         <v>1.0</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
         <v>1.0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>5.0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>500.0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
         <v>2.0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -864,77 +865,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>0.0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -942,109 +943,109 @@
       <c r="C4" s="1">
         <v>100.0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
         <v>10.0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>10.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>50.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>500.0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
         <v>3.0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
+++ b/Assets/SaveData/ExcelFiles/MergeMode/WeaponSkill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>string</t>
   </si>
@@ -46,94 +46,89 @@
   </si>
   <si>
     <t>단발총</t>
-  </si>
-  <si>
-    <t>소총</t>
-  </si>
-  <si>
-    <t>산탄총</t>
-  </si>
-  <si>
-    <t>유탄입니다.</t>
   </si>
   <si>
     <t>빠른 연사속도로 적을 공격하는 무기.
 범용성이 높아 다양한 적에 대응할 수 있고 행동이 재빠른 적을 제압하기에 용이하다.</t>
   </si>
   <si>
-    <t>여러 갈래로 탄환을 발사하여 공격하는 무기.
-사거리는 짧으나, 근접한 적을 쓸어버리는데에 효과가 좋다.</t>
+    <t>LinearGun</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>화력 강화</t>
+  </si>
+  <si>
+    <t>각 탄환당 데미지가 5 증가합니다.</t>
+  </si>
+  <si>
+    <t>ATKup</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>신속 장전</t>
+  </si>
+  <si>
+    <t>발사 후 재장전 속도가 0.25초 감소합니다.</t>
+  </si>
+  <si>
+    <t>ASup</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>사거리 증가</t>
+  </si>
+  <si>
+    <t>공격 사거리가 1m 증가합니다.</t>
+  </si>
+  <si>
+    <t>ARup</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>소총</t>
+  </si>
+  <si>
+    <t>관통 사격(U)</t>
+  </si>
+  <si>
+    <t>피격 대상들을 모두 관통하며 피해를 입히는 탄환을 10회 발사합니다.
+재사용 대기시간 5초</t>
+  </si>
+  <si>
+    <t>U_PanetratingShot</t>
+  </si>
+  <si>
+    <t>적의 약점을 노려 치명적인 일격을 가하는 무기.
+먼 거리에서 포격하는 적을 저격하기에 용이하다.</t>
   </si>
   <si>
     <t>EnergySphereGun</t>
   </si>
   <si>
-    <t>LinearGun</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>ShotGun</t>
-  </si>
-  <si>
-    <t>화력 강화</t>
-  </si>
-  <si>
     <t>데미지가 10 증가합니다.</t>
   </si>
   <si>
-    <t>ATKup</t>
-  </si>
-  <si>
-    <t>각 탄환당 데미지가 5 증가합니다.</t>
-  </si>
-  <si>
-    <t>2_1</t>
-  </si>
-  <si>
-    <t>사거리 증가</t>
-  </si>
-  <si>
-    <t>공격 사거리가 1m 증가합니다.</t>
-  </si>
-  <si>
     <t>약점 조준</t>
   </si>
   <si>
     <t>치명타 확률이 10% 증가합니다.</t>
   </si>
   <si>
-    <t>ARup</t>
-  </si>
-  <si>
-    <t>신속 장전</t>
-  </si>
-  <si>
     <t>CCup</t>
   </si>
   <si>
-    <t>발사 후 재장전 속도가 0.25초 감소합니다.</t>
-  </si>
-  <si>
-    <t>2_2</t>
-  </si>
-  <si>
-    <t>ASup</t>
-  </si>
-  <si>
-    <t>탄환 추가</t>
-  </si>
-  <si>
-    <t>탄환을 1개 더 발사합니다.</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>AAup</t>
-  </si>
-  <si>
     <t>약점 파괴</t>
   </si>
   <si>
@@ -141,9 +136,6 @@
   </si>
   <si>
     <t>CRup</t>
-  </si>
-  <si>
-    <t>3_1</t>
   </si>
   <si>
     <t>중력장 생성(U)</t>
@@ -157,14 +149,26 @@
     <t>U_GravityField</t>
   </si>
   <si>
-    <t>관통 사격(U)</t>
-  </si>
-  <si>
-    <t>피격 대상들을 모두 관통하며 피해를 입히는 탄환을 10회 발사합니다.
-재사용 대기시간 5초</t>
-  </si>
-  <si>
-    <t>U_PanetratingShot</t>
+    <t>산탄총</t>
+  </si>
+  <si>
+    <t>여러 갈래로 탄환을 발사하여 공격하는 무기.
+사거리는 짧으나, 근접한 적을 쓸어버리는데에 효과가 좋다.</t>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>발사 후 재장전 속도가 1초 감소합니다.</t>
+  </si>
+  <si>
+    <t>탄환 추가</t>
+  </si>
+  <si>
+    <t>탄환을 1개 더 발사합니다.</t>
+  </si>
+  <si>
+    <t>AAup</t>
   </si>
   <si>
     <t>더블 배럴(U)</t>
@@ -192,12 +196,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,10 +230,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -516,22 +520,22 @@
       <c r="C3" s="1">
         <v>0.0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -540,108 +544,108 @@
         <v>100.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>5.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>25.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
         <v>25.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>500.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3">
         <v>10.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +682,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -718,22 +722,22 @@
       <c r="C3" s="1">
         <v>0.0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -741,109 +745,109 @@
       <c r="C4" s="1">
         <v>100.0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3">
         <v>1.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3">
         <v>1.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>5.0</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>500.0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3">
         <v>2.0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
+      <c r="G8" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +884,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -920,22 +924,22 @@
       <c r="C3" s="1">
         <v>0.0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -943,109 +947,109 @@
       <c r="C4" s="1">
         <v>100.0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3">
         <v>10.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>100.0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1">
         <v>10.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>50.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>500.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
         <v>3.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
